--- a/data/trans_orig/IP33-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP33-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69C6F9BC-2E9D-4BDD-B671-26DE984E702B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5B8A8AF-E63B-4D9A-A23F-F5B089590B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7F11122E-5981-49EF-8CBE-3972A4839EB6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DFC6049-EA86-4388-8BDC-A0572E5E0C8E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="600">
   <si>
     <t>Adultos según su estado civil en 2007 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -95,1759 +95,1750 @@
     <t>8,25%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>9,31%</t>
   </si>
   <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Adultos según su estado civil en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>72,71%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>Adultos según su estado civil en 2016 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>Adultos según su estado civil en 2023 (Tasa respuesta: 7,14%)</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Adultos según su estado civil en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>Adultos según su estado civil en 2015 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>63,3%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>71,22%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>Adultos según su estado civil en 2023 (Tasa respuesta: 7,14%)</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>50,52%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>46,61%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>18,42%</t>
   </si>
   <si>
     <t>8,84%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
+    <t>19,5%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>13,93%</t>
-  </si>
-  <si>
     <t>2,82%</t>
   </si>
   <si>
     <t>6,26%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>21,37%</t>
   </si>
   <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>26,11%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
   </si>
   <si>
     <t>69,97%</t>
   </si>
   <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
+    <t>56,87%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
   </si>
   <si>
     <t>62,99%</t>
   </si>
   <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ECC2AAF-B6B4-48CF-870D-BAF4EFE108AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4391A95-2A78-445C-BB8F-C72F569DC68B}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3017,10 +3008,10 @@
         <v>73</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -3029,13 +3020,13 @@
         <v>5428</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -3044,13 +3035,13 @@
         <v>10715</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>33</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3056,13 @@
         <v>15898</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H18" s="7">
         <v>16</v>
@@ -3080,13 +3071,13 @@
         <v>10077</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>40</v>
@@ -3095,13 +3086,13 @@
         <v>25975</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,13 +3107,13 @@
         <v>33966</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -3131,13 +3122,13 @@
         <v>22210</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>83</v>
@@ -3146,13 +3137,13 @@
         <v>56176</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,13 +3158,13 @@
         <v>416718</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>559</v>
@@ -3182,13 +3173,13 @@
         <v>370234</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M20" s="7">
         <v>1188</v>
@@ -3197,13 +3188,13 @@
         <v>786952</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,7 +3250,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3271,13 +3262,13 @@
         <v>695</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3289,10 +3280,10 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -3301,13 +3292,13 @@
         <v>695</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,13 +3313,13 @@
         <v>2528</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>6</v>
@@ -3337,13 +3328,13 @@
         <v>4399</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -3352,13 +3343,13 @@
         <v>6926</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3364,13 @@
         <v>5671</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -3388,13 +3379,13 @@
         <v>5089</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3403,13 +3394,13 @@
         <v>10760</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3415,13 @@
         <v>12344</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3439,13 +3430,13 @@
         <v>14894</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -3454,13 +3445,13 @@
         <v>27238</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3466,13 @@
         <v>136900</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H26" s="7">
         <v>219</v>
@@ -3490,13 +3481,13 @@
         <v>149685</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M26" s="7">
         <v>424</v>
@@ -3505,13 +3496,13 @@
         <v>286586</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,28 +3570,28 @@
         <v>12985</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H28" s="7">
         <v>23</v>
       </c>
       <c r="I28" s="7">
-        <v>16025</v>
+        <v>16024</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M28" s="7">
         <v>43</v>
@@ -3609,13 +3600,13 @@
         <v>29010</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,7 +3621,7 @@
         <v>9168</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>159</v>
@@ -3648,10 +3639,10 @@
         <v>161</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -3666,7 +3657,7 @@
         <v>164</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>75</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,7 +3672,7 @@
         <v>25906</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>165</v>
@@ -3699,10 +3690,10 @@
         <v>167</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M30" s="7">
         <v>74</v>
@@ -3711,13 +3702,13 @@
         <v>50178</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,13 +3723,13 @@
         <v>52212</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H31" s="7">
         <v>70</v>
@@ -3747,13 +3738,13 @@
         <v>47339</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M31" s="7">
         <v>147</v>
@@ -3762,13 +3753,13 @@
         <v>99551</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3783,28 +3774,28 @@
         <v>621703</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H32" s="7">
         <v>871</v>
       </c>
       <c r="I32" s="7">
-        <v>581045</v>
+        <v>581044</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M32" s="7">
         <v>1807</v>
@@ -3813,13 +3804,13 @@
         <v>1202747</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,7 +3837,7 @@
         <v>1017</v>
       </c>
       <c r="I33" s="7">
-        <v>680445</v>
+        <v>680444</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>62</v>
@@ -3875,7 +3866,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +3886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424DBA5A-0359-4C35-88B8-97BADB7EE31D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C0956-FC2E-446D-BD5B-DF477F2009A4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3912,7 +3903,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4022,10 +4013,10 @@
         <v>27</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4050,10 +4041,10 @@
         <v>27</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +4062,10 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4099,10 +4090,10 @@
         <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,10 +4108,10 @@
         <v>641</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>62</v>
@@ -4145,10 +4136,10 @@
         <v>641</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>62</v>
@@ -4169,10 +4160,10 @@
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4197,10 +4188,10 @@
         <v>27</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,10 +4209,10 @@
         <v>27</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4246,10 +4237,10 @@
         <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,28 +4306,28 @@
         <v>4483</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -4345,13 +4336,13 @@
         <v>7631</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,13 +4357,13 @@
         <v>3531</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -4381,13 +4372,13 @@
         <v>3186</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
@@ -4396,13 +4387,13 @@
         <v>6717</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4408,13 @@
         <v>3816</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>213</v>
+        <v>26</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4432,13 +4423,13 @@
         <v>2534</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>10</v>
@@ -4447,13 +4438,13 @@
         <v>6350</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4459,13 @@
         <v>9043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -4483,13 +4474,13 @@
         <v>14556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>33</v>
@@ -4498,13 +4489,13 @@
         <v>23599</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,28 +4510,28 @@
         <v>65319</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>100</v>
       </c>
       <c r="I14" s="7">
-        <v>68944</v>
+        <v>68945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>191</v>
@@ -4549,13 +4540,13 @@
         <v>134264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4582,7 +4573,7 @@
         <v>134</v>
       </c>
       <c r="I15" s="7">
-        <v>92368</v>
+        <v>92369</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>62</v>
@@ -4623,13 +4614,13 @@
         <v>4956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>240</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4638,13 +4629,13 @@
         <v>3836</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -4653,13 +4644,13 @@
         <v>8792</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4665,13 @@
         <v>22441</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4689,13 +4680,13 @@
         <v>17634</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>57</v>
@@ -4704,13 +4695,13 @@
         <v>40075</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4716,13 @@
         <v>11975</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>256</v>
+        <v>163</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -4740,13 +4731,13 @@
         <v>17514</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>77</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="M18" s="7">
         <v>42</v>
@@ -4755,13 +4746,13 @@
         <v>29489</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4767,13 @@
         <v>41433</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -4791,13 +4782,13 @@
         <v>52044</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="M19" s="7">
         <v>134</v>
@@ -4806,13 +4797,13 @@
         <v>93477</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4827,13 +4818,13 @@
         <v>412409</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>522</v>
@@ -4842,13 +4833,13 @@
         <v>359889</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>1113</v>
@@ -4857,13 +4848,13 @@
         <v>772298</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,7 +4910,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4931,13 +4922,13 @@
         <v>2180</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4949,10 +4940,10 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4961,13 +4952,13 @@
         <v>2180</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4982,13 +4973,13 @@
         <v>3175</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -4997,13 +4988,13 @@
         <v>3019</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>210</v>
+        <v>281</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -5012,13 +5003,13 @@
         <v>6194</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5024,13 @@
         <v>4225</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -5048,13 +5039,13 @@
         <v>4100</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -5063,13 +5054,13 @@
         <v>8326</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>199</v>
+        <v>291</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5075,13 @@
         <v>19358</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -5099,13 +5090,13 @@
         <v>13797</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>48</v>
@@ -5114,13 +5105,13 @@
         <v>33155</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5126,13 @@
         <v>143290</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>204</v>
@@ -5150,13 +5141,13 @@
         <v>145896</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>408</v>
@@ -5165,13 +5156,13 @@
         <v>289186</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,13 +5230,13 @@
         <v>11619</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H28" s="7">
         <v>11</v>
@@ -5254,13 +5245,13 @@
         <v>6984</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>65</v>
+        <v>315</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>318</v>
+        <v>237</v>
       </c>
       <c r="M28" s="7">
         <v>28</v>
@@ -5269,13 +5260,13 @@
         <v>18603</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>241</v>
+        <v>289</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,13 +5281,13 @@
         <v>29147</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="H29" s="7">
         <v>34</v>
@@ -5305,13 +5296,13 @@
         <v>23839</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="M29" s="7">
         <v>75</v>
@@ -5320,13 +5311,13 @@
         <v>52985</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5332,13 @@
         <v>20658</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -5377,7 +5368,7 @@
         <v>330</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5383,13 @@
         <v>69834</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>334</v>
       </c>
       <c r="H31" s="7">
         <v>117</v>
@@ -5407,13 +5398,13 @@
         <v>80396</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>46</v>
+        <v>333</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M31" s="7">
         <v>215</v>
@@ -5422,13 +5413,13 @@
         <v>150231</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="P31" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="Q31" s="7" t="s">
-        <v>43</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5434,13 @@
         <v>621018</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H32" s="7">
         <v>826</v>
@@ -5458,13 +5449,13 @@
         <v>574730</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M32" s="7">
         <v>1712</v>
@@ -5473,13 +5464,13 @@
         <v>1195747</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,7 +5526,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -5555,7 +5546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94DE8538-B356-4026-A350-B32C564A9ABB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C850E807-F8A4-4B64-9393-4A80ED55945E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5572,7 +5563,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5951,13 +5942,13 @@
         <v>8429</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>217</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -5966,13 +5957,13 @@
         <v>1932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -5981,13 +5972,13 @@
         <v>10361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6002,13 +5993,13 @@
         <v>2300</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -6017,13 +6008,13 @@
         <v>1378</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>203</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -6032,13 +6023,13 @@
         <v>3678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>321</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6044,13 @@
         <v>3669</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>364</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -6068,13 +6059,13 @@
         <v>2830</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>9</v>
@@ -6083,13 +6074,13 @@
         <v>6499</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6095,13 @@
         <v>8719</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -6119,13 +6110,13 @@
         <v>8724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -6134,13 +6125,13 @@
         <v>17443</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,13 +6146,13 @@
         <v>45496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>66</v>
@@ -6170,13 +6161,13 @@
         <v>44514</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M14" s="7">
         <v>132</v>
@@ -6185,13 +6176,13 @@
         <v>90012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6250,13 @@
         <v>5031</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -6274,13 +6265,13 @@
         <v>3502</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>159</v>
+        <v>390</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>385</v>
+        <v>114</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6289,13 +6280,13 @@
         <v>8533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,13 +6301,13 @@
         <v>17678</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -6325,13 +6316,13 @@
         <v>25474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>173</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>62</v>
@@ -6340,13 +6331,13 @@
         <v>43152</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>395</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6352,13 @@
         <v>21573</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>24</v>
@@ -6376,13 +6367,13 @@
         <v>15824</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>55</v>
@@ -6391,13 +6382,13 @@
         <v>37396</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>400</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,13 +6403,13 @@
         <v>84533</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H19" s="7">
         <v>130</v>
@@ -6427,13 +6418,13 @@
         <v>84923</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -6442,13 +6433,13 @@
         <v>169457</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>298</v>
+        <v>412</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,16 +6451,16 @@
         <v>509</v>
       </c>
       <c r="D20" s="7">
-        <v>358601</v>
+        <v>358600</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>517</v>
@@ -6478,13 +6469,13 @@
         <v>341963</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>1026</v>
@@ -6493,13 +6484,13 @@
         <v>700564</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,7 +6502,7 @@
         <v>693</v>
       </c>
       <c r="D21" s="7">
-        <v>487416</v>
+        <v>487415</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>62</v>
@@ -6555,7 +6546,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6567,13 +6558,13 @@
         <v>1429</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>320</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -6582,13 +6573,13 @@
         <v>540</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>419</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>420</v>
+        <v>161</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -6597,13 +6588,13 @@
         <v>1969</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>74</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6621,10 +6612,10 @@
         <v>329</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>424</v>
+        <v>215</v>
       </c>
       <c r="H23" s="7">
         <v>16</v>
@@ -6633,13 +6624,13 @@
         <v>12045</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="M23" s="7">
         <v>24</v>
@@ -6648,13 +6639,13 @@
         <v>17790</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>169</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>428</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>179</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,13 +6660,13 @@
         <v>5472</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>197</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>176</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -6684,13 +6675,13 @@
         <v>4268</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -6699,13 +6690,13 @@
         <v>9740</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>212</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6711,13 @@
         <v>27267</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="H25" s="7">
         <v>38</v>
@@ -6735,13 +6726,13 @@
         <v>25436</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -6750,13 +6741,13 @@
         <v>52703</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6771,13 +6762,13 @@
         <v>147581</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="H26" s="7">
         <v>196</v>
@@ -6786,13 +6777,13 @@
         <v>130414</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="M26" s="7">
         <v>411</v>
@@ -6801,13 +6792,13 @@
         <v>277995</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6875,13 +6866,13 @@
         <v>14889</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="H28" s="7">
         <v>9</v>
@@ -6890,13 +6881,13 @@
         <v>5974</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>456</v>
+        <v>273</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>420</v>
+        <v>311</v>
       </c>
       <c r="M28" s="7">
         <v>29</v>
@@ -6905,13 +6896,13 @@
         <v>20863</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>429</v>
+        <v>84</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>353</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,13 +6917,13 @@
         <v>25724</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -6941,13 +6932,13 @@
         <v>38897</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>463</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>91</v>
@@ -6956,13 +6947,13 @@
         <v>64621</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>288</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>464</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>461</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6977,13 +6968,13 @@
         <v>30713</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>262</v>
+        <v>466</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>28</v>
+        <v>468</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -6992,13 +6983,13 @@
         <v>22922</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>467</v>
+        <v>361</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>199</v>
       </c>
       <c r="M30" s="7">
         <v>78</v>
@@ -7007,13 +6998,13 @@
         <v>53635</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>469</v>
+        <v>93</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,7 +7162,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -7191,7 +7182,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3423491B-A1F9-4123-98D6-216E5FCEA5A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E006DAF-3C59-45EA-AF2A-7D8C8F76F586}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7605,7 +7596,7 @@
         <v>27</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>492</v>
@@ -7617,13 +7608,13 @@
         <v>586</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>493</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,7 +7632,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>492</v>
@@ -7656,7 +7647,7 @@
         <v>27</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>492</v>
@@ -7671,10 +7662,10 @@
         <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7692,7 +7683,7 @@
         <v>27</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>492</v>
@@ -7704,13 +7695,13 @@
         <v>514</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>374</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -7719,13 +7710,13 @@
         <v>514</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>398</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7746,7 +7737,7 @@
         <v>27</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -7755,13 +7746,13 @@
         <v>1203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -7770,13 +7761,13 @@
         <v>1555</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7782,13 @@
         <v>2841</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -7806,13 +7797,13 @@
         <v>1563</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -7821,13 +7812,13 @@
         <v>4403</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7886,13 @@
         <v>1027</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7910,13 +7901,13 @@
         <v>1242</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -7925,13 +7916,13 @@
         <v>2269</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>517</v>
+        <v>315</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7937,13 @@
         <v>1434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -7961,13 +7952,13 @@
         <v>3445</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="M17" s="7">
         <v>5</v>
@@ -7976,13 +7967,13 @@
         <v>4879</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8000,10 +7991,10 @@
         <v>27</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -8012,13 +8003,13 @@
         <v>2344</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="M18" s="7">
         <v>5</v>
@@ -8027,13 +8018,13 @@
         <v>2343</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8039,13 @@
         <v>8604</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>533</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>534</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>535</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -8063,13 +8054,13 @@
         <v>9957</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>537</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>538</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -8078,13 +8069,13 @@
         <v>18561</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>539</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8090,13 @@
         <v>23814</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>541</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H20" s="7">
         <v>28</v>
@@ -8191,7 +8182,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -8206,10 +8197,10 @@
         <v>27</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -8221,7 +8212,7 @@
         <v>27</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>549</v>
@@ -8236,7 +8227,7 @@
         <v>27</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>550</v>
@@ -8308,10 +8299,10 @@
         <v>27</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -8323,7 +8314,7 @@
         <v>27</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>549</v>
@@ -8338,7 +8329,7 @@
         <v>27</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>550</v>
@@ -8356,13 +8347,13 @@
         <v>708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>557</v>
+        <v>196</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -8371,13 +8362,13 @@
         <v>756</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -8392,7 +8383,7 @@
         <v>27</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8407,13 +8398,13 @@
         <v>4994</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -8422,13 +8413,13 @@
         <v>5277</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>564</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>565</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -8437,13 +8428,13 @@
         <v>10271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8514,10 +8505,10 @@
         <v>167</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>570</v>
+        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -8526,13 +8517,13 @@
         <v>1242</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>569</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -8541,13 +8532,13 @@
         <v>2855</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,7 +8553,7 @@
         <v>2306</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>120</v>
+        <v>573</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>27</v>
@@ -8580,10 +8571,10 @@
         <v>575</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>577</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -8592,13 +8583,13 @@
         <v>6343</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>324</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>579</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8616,10 +8607,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H30" s="7">
         <v>6</v>
@@ -8628,13 +8619,13 @@
         <v>2857</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>582</v>
+        <v>402</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -8643,13 +8634,13 @@
         <v>2857</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8664,13 +8655,13 @@
         <v>9664</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -8679,13 +8670,13 @@
         <v>11917</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M31" s="7">
         <v>31</v>
@@ -8694,13 +8685,13 @@
         <v>21581</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8715,13 +8706,13 @@
         <v>31649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H32" s="7">
         <v>39</v>
@@ -8730,13 +8721,13 @@
         <v>25590</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="M32" s="7">
         <v>89</v>
@@ -8745,13 +8736,13 @@
         <v>57239</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8807,7 +8798,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
